--- a/ListOfStudents.xlsx
+++ b/ListOfStudents.xlsx
@@ -20,13 +20,13 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10167" uniqueCount="2158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10167" uniqueCount="2159">
   <si>
     <t>№</t>
   </si>
@@ -6500,17 +6500,27 @@
   </si>
   <si>
     <t>Медов Никита Антонович</t>
+  </si>
+  <si>
+    <t>ФИО</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6657,7 +6667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -6670,6 +6680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -18102,7 +18113,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="4" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:M257" firstHeaderRow="2" firstDataRow="2" firstDataCol="7"/>
   <pivotFields count="23">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
@@ -21294,7 +21305,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:W410" totalsRowShown="0">
-  <autoFilter ref="A1:W410"/>
+  <autoFilter ref="A1:W410">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="В академическом отпуске"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="21">
+      <filters>
+        <filter val="Да - ЦДП"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="23">
     <tableColumn id="1" name="№"/>
     <tableColumn id="2" name="Фамилия"/>
@@ -21318,7 +21340,7 @@
     <tableColumn id="20" name="ИСОТ"/>
     <tableColumn id="21" name="Поступление на общих основаниях"/>
     <tableColumn id="22" name="Целевое обучение"/>
-    <tableColumn id="23" name="Полное ФИО">
+    <tableColumn id="23" name="ФИО">
       <calculatedColumnFormula>B2 &amp; " " &amp; C2 &amp; " " &amp; D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -28549,8 +28571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L411" sqref="L411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28643,11 +28665,11 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W1" s="12" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28719,7 +28741,7 @@
         <v>Абызова Алина Алиевна</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -28791,7 +28813,7 @@
         <v>Авдеев Денис Владимирович</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -28863,7 +28885,7 @@
         <v>Аветисян София Манвеловна</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -28935,7 +28957,7 @@
         <v>Агеев Иван Сергеевич</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -29007,7 +29029,7 @@
         <v>Агузаров Артём Дмитриевич</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -29079,7 +29101,7 @@
         <v>Азаров Алексей Антонович</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -29151,7 +29173,7 @@
         <v>Алейников Глеб Павлович</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -29223,7 +29245,7 @@
         <v>Александров Антон Александрович</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -29295,7 +29317,7 @@
         <v>Андрюшина Анастасия Сергеевна</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -29367,7 +29389,7 @@
         <v>Анисимова Ольвия Владимировна</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -29439,7 +29461,7 @@
         <v>Ануфриенков Максим Андреевич</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -29511,7 +29533,7 @@
         <v>Артемова Мария Васильевна</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -29583,7 +29605,7 @@
         <v>Асатрян Аршак Гарникович</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -29655,7 +29677,7 @@
         <v>Асрян Давит Артурович</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -29727,7 +29749,7 @@
         <v>Афанасьев Ярослав Денисович</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -29799,7 +29821,7 @@
         <v>Ахматова Елизавета Олеговна</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -29871,7 +29893,7 @@
         <v>Бабанин Роман Николаевич</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -29943,7 +29965,7 @@
         <v>Бабенко Александр Андреевич</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -30015,7 +30037,7 @@
         <v>Баженов Иван Михайлович</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -30087,7 +30109,7 @@
         <v>Бакшеев Никита Ильич</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -30159,7 +30181,7 @@
         <v>Балашов Андрей Андреевич</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -30231,7 +30253,7 @@
         <v>Баранов Станислав Александрович</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -30303,7 +30325,7 @@
         <v>Баранова Анна Сергеевна</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -30375,7 +30397,7 @@
         <v>Барболин Макар Александрович</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -30447,7 +30469,7 @@
         <v>Барков Николай Александрович</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -30519,7 +30541,7 @@
         <v>Бартоломеева Елизавета Дмитриевна</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -30591,7 +30613,7 @@
         <v>Белов Михаил Александрович</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -30663,7 +30685,7 @@
         <v>Белоусов Николай Витальевич</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -30735,7 +30757,7 @@
         <v>Бельченко Георгий Станиславович</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -30807,7 +30829,7 @@
         <v>Бендас Иван Петрович</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -30879,7 +30901,7 @@
         <v>Беркович Семён Владимирович</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -30951,7 +30973,7 @@
         <v>Бобохина Валерия Александровна</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -31023,7 +31045,7 @@
         <v>Бобров Максим Сергеевич</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -31095,7 +31117,7 @@
         <v>Богомолов Матвей Алексеевич</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -31167,7 +31189,7 @@
         <v>Боднар Илья Алексеевич</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -31239,7 +31261,7 @@
         <v>Бодриков Иван Андреевич</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -31311,7 +31333,7 @@
         <v>Боева Ярослава Андреевна</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -31383,7 +31405,7 @@
         <v>Бойко Николай Семёнович</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -31455,7 +31477,7 @@
         <v>Бойков Матвей Андреевич</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -31527,7 +31549,7 @@
         <v>Болдохонов Буянто Игоревич</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -31599,7 +31621,7 @@
         <v>Бондарь Анна Артемовна</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -31671,7 +31693,7 @@
         <v>Бондарь Семён Алексеевич</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -31743,7 +31765,7 @@
         <v>Бугаков Дмитрий Максимович</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -31815,7 +31837,7 @@
         <v>Булдаков Иван Денисович</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -31887,7 +31909,7 @@
         <v>Вавилова Анастасия Андреевна</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -31959,7 +31981,7 @@
         <v>Ванюшкин Степан Дмитриевич</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -32031,7 +32053,7 @@
         <v>Вахрушин Ярослав Андреевич</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -32103,7 +32125,7 @@
         <v>Верзилин Станислав Сергеевич</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -32175,7 +32197,7 @@
         <v>Весельчаков Иван Александрович</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -32247,7 +32269,7 @@
         <v>Викторова Ксения Артемовна</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -32319,7 +32341,7 @@
         <v>Вилистер Елена Дмитриевна</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -32391,7 +32413,7 @@
         <v>Власов Артём Александрович</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -32463,7 +32485,7 @@
         <v>Воронин Егор Иванович</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -32535,7 +32557,7 @@
         <v>Ворошнина Екатерина Михайловна</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -32607,7 +32629,7 @@
         <v>Гаврилова Ольга Олеговна</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -32679,7 +32701,7 @@
         <v>Гавришова Милана Артемовна</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -32751,7 +32773,7 @@
         <v>Галиуллина Рената Венеровна</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -32823,7 +32845,7 @@
         <v>Галкин Егор Николаевич</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -32895,7 +32917,7 @@
         <v>Гарифзянов Тимур Русланович</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -32967,7 +32989,7 @@
         <v>Герасименко Денис Максимович</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -33039,7 +33061,7 @@
         <v>Гергерт Людмила Андреевна</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -33111,7 +33133,7 @@
         <v>Гисс Владислав Валерьевич</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -33183,7 +33205,7 @@
         <v>Глушков Арсений Дмитриевич</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -33255,7 +33277,7 @@
         <v>Говорченко Александр Владимирович</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -33327,7 +33349,7 @@
         <v>Голубев Александр Евгеньевич</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -33399,7 +33421,7 @@
         <v>Голубев Максим Александрович</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -33471,7 +33493,7 @@
         <v>Горяев Максим Андреевич</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -33543,7 +33565,7 @@
         <v>Горячев Алексей Витальевич</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -33615,7 +33637,7 @@
         <v>Грейнер Владимир Борисович</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -33687,7 +33709,7 @@
         <v>Гречихин Илья Михайлович</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -33759,7 +33781,7 @@
         <v>Григорян Рубен Грантович</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -33831,7 +33853,7 @@
         <v>Гришин Артём Борисович</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -33975,7 +33997,7 @@
         <v>Губанов Игорь Анатольевич</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -34047,7 +34069,7 @@
         <v>Гудзь Артём Николаевич</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -34119,7 +34141,7 @@
         <v>Гурьев Даниил Витальевич</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -34191,7 +34213,7 @@
         <v>Данилова Анастасия Алексеевна</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -34263,7 +34285,7 @@
         <v>Данчивский Даниил Андреевич</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -34335,7 +34357,7 @@
         <v>Даняев Егор Михайлович</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -34407,7 +34429,7 @@
         <v>Дорошенко Владимир Андреевич</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -34551,7 +34573,7 @@
         <v>Дробот Полина Дмитриевна</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -34623,7 +34645,7 @@
         <v>Дружаев Алексей Андреевич</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -34695,7 +34717,7 @@
         <v>Дустов Максим Муртазоевич</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -34767,7 +34789,7 @@
         <v>Ебралидзе Евгений Шалвович</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -34839,7 +34861,7 @@
         <v>Евглевский Руслан Джабраилович</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -34911,7 +34933,7 @@
         <v>Егоркин Максим Дмитриевич</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -34983,7 +35005,7 @@
         <v>Егорова Валентина Вячеславовна</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -35055,7 +35077,7 @@
         <v>Еланская Татьяна Михайловна</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -35127,7 +35149,7 @@
         <v>Еналдиева Камилла Алексеевна</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -35199,7 +35221,7 @@
         <v>Епифановская Юлия Владимировна</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -35271,7 +35293,7 @@
         <v>Еремин Иван Евгеньевич</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -35343,7 +35365,7 @@
         <v>Ермоленко Виктор Геннадьевич</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -35415,7 +35437,7 @@
         <v>Ершов Михаил Владимирович</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -35487,7 +35509,7 @@
         <v>Ефремов Максим Валерьевич</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -35559,7 +35581,7 @@
         <v>Жаров Леонид Игоревич</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -35631,7 +35653,7 @@
         <v>Журавлев Степан Андреевич</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -35703,7 +35725,7 @@
         <v>Загумённая Кристина Дмитриевна</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -35775,7 +35797,7 @@
         <v>Зайцев Евгений Евгеньевич</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -35847,7 +35869,7 @@
         <v>Закуражнов Руслан Александрович</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -35919,7 +35941,7 @@
         <v>Зарецкий Степан Сергеевич</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -35991,7 +36013,7 @@
         <v>Зверева Арина Андреевна</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -36063,7 +36085,7 @@
         <v>Зезаев Алим Юсупович</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -36135,7 +36157,7 @@
         <v>Зелянин Дмитрий Сергеевич</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -36207,7 +36229,7 @@
         <v>Ибрагимов Артём Тимурович</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -36279,7 +36301,7 @@
         <v>Ибрагимов Георгий Ильич</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -36351,7 +36373,7 @@
         <v>Иванов Алексей Владимирович</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -36423,7 +36445,7 @@
         <v>Иванова Арина Николаевна</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -36495,7 +36517,7 @@
         <v>Игнатенко Виталий Андреевич</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -36567,7 +36589,7 @@
         <v>Ильин Иван Васильевич</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -36639,7 +36661,7 @@
         <v>Ильюшина Валерия Сергеевна</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -36711,7 +36733,7 @@
         <v>Иняков Максим Сергеевич</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -36783,7 +36805,7 @@
         <v>Казаков Темирлан Тынычбекович</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -36855,7 +36877,7 @@
         <v>Казарская Дарья Андреевна</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -36927,7 +36949,7 @@
         <v>Кайгородцев Артём Владимирович</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -36999,7 +37021,7 @@
         <v>Калимуллин Тимур Камилевич</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -37071,7 +37093,7 @@
         <v>Калинин Константин Олегович</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -37143,7 +37165,7 @@
         <v>Калиновский Дмитрий Александрович</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -37215,7 +37237,7 @@
         <v>Калугин Евгений Алексеевич</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -37287,7 +37309,7 @@
         <v>Камшилов Вячеслав Михайлович</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -37359,7 +37381,7 @@
         <v>Карпухин Александр Витальевич</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -37431,7 +37453,7 @@
         <v>Карташев Илья Михайлович</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -37503,7 +37525,7 @@
         <v>Карякин Павел Юрьевич</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -37575,7 +37597,7 @@
         <v>Катышев Дмитрий Андреевич</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -37647,7 +37669,7 @@
         <v>Киреев Игорь Андреевич</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -37719,7 +37741,7 @@
         <v>Кириенко Леонид Игоревич</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -37791,7 +37813,7 @@
         <v>Кириллов Илья Владимирович</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -37863,7 +37885,7 @@
         <v>Кирьякулов Пётр Романович</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -37935,7 +37957,7 @@
         <v>Киселева Елизавета Александровна</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -38007,7 +38029,7 @@
         <v>Кискин Никита Алексеевич</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -38079,7 +38101,7 @@
         <v>Киянова Наталья Сергеевна</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -38151,7 +38173,7 @@
         <v>Клименкова Юлия Алексеевна</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -38223,7 +38245,7 @@
         <v>Кобец Диана Вячеславовна</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -38295,7 +38317,7 @@
         <v>Ковалев Савелий Андреевич</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -38367,7 +38389,7 @@
         <v>Ковылина Мария Арсеньевна</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -38439,7 +38461,7 @@
         <v>Кожаев Константин Игоревич</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -38511,7 +38533,7 @@
         <v>Козеняшев Павел Михайлович</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -38583,7 +38605,7 @@
         <v>Козицкий Владислав Ильич</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -38655,7 +38677,7 @@
         <v>Козленко Дмитрий Сергеевич</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -38727,7 +38749,7 @@
         <v>Колесник Илья Дмитриевич</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -38799,7 +38821,7 @@
         <v>Колесников Марк Александрович</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -38871,7 +38893,7 @@
         <v>Колочков Кирилл Сергеевич</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -38943,7 +38965,7 @@
         <v>Колпаков Артем Константинович</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -39015,7 +39037,7 @@
         <v>Компасов Лев Валерьевич</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -39087,7 +39109,7 @@
         <v>Кондратьев Евгений Константинович</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -39159,7 +39181,7 @@
         <v>Кондратюкин Вячеслав Владимирович</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -39231,7 +39253,7 @@
         <v>Кондрич Денис Леонидович</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -39303,7 +39325,7 @@
         <v>Коновалов Тимур Сергеевич</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -39375,7 +39397,7 @@
         <v>Константиновский Юрий Денисович</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -39447,7 +39469,7 @@
         <v>Коренева Анна Витальевна</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -39519,7 +39541,7 @@
         <v>Корнеева Юлия Алексеевна</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -39591,7 +39613,7 @@
         <v>Королькевич Климентий Вадимович</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -39663,7 +39685,7 @@
         <v>Короткий Владислав Васильевич</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -39735,7 +39757,7 @@
         <v>Коротченко Алиса Максимовна</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -39807,7 +39829,7 @@
         <v>Коссе Алена Олеговна</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -39879,7 +39901,7 @@
         <v>Костина Арина Сергеевна</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -39951,7 +39973,7 @@
         <v>Кочетков Алексей Игоревич</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -40023,7 +40045,7 @@
         <v>Кошелева Варвара Сергеевна</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -40095,7 +40117,7 @@
         <v>Кравцова Анастасия Павловна</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -40167,7 +40189,7 @@
         <v>Красильников Олег Максимович</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -40239,7 +40261,7 @@
         <v>Красовский Иван Игоревич</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -40311,7 +40333,7 @@
         <v>Кривенков Данил Анатольевич</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -40383,7 +40405,7 @@
         <v>Крохин Никита Алексеевич</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -40455,7 +40477,7 @@
         <v>Крупянов Егор Эдуардович</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -40527,7 +40549,7 @@
         <v>Крылов Иван Андреевич</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -40599,7 +40621,7 @@
         <v>Крылова Полина Евгеньевна</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -40671,7 +40693,7 @@
         <v>Крюкова Мария Олеговна</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -40743,7 +40765,7 @@
         <v>Кудряшова Елизавета Дмитриевна</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -40815,7 +40837,7 @@
         <v>Кузнецов Дмитрий Максимович</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -40887,7 +40909,7 @@
         <v>Кузнецов Константин Александрович</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -40959,7 +40981,7 @@
         <v>Кузнецов Роман Игоревич</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -41031,7 +41053,7 @@
         <v>Куковинец Наталья Владимировна</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -41103,7 +41125,7 @@
         <v>Кулешов Станислав Анатольевич</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -41175,7 +41197,7 @@
         <v>Куранин Роман Дмитриевич</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -41247,7 +41269,7 @@
         <v>Курганов Даниил Игоревич</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -41319,7 +41341,7 @@
         <v>Курлянцева Анастасия Александровна</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -41391,7 +41413,7 @@
         <v>Курносенков Александр Дмитриевич</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -41463,7 +41485,7 @@
         <v>Курпеев Сергей Анатольевич</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -41535,7 +41557,7 @@
         <v>Кутьенков Тимофей Владимирович</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -41607,7 +41629,7 @@
         <v>Кучеров Егор Андреевич</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -41679,7 +41701,7 @@
         <v>Лаврентьев Иван Алексеевич</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -41751,7 +41773,7 @@
         <v>Лебедев Фёдор Константинович</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -41823,7 +41845,7 @@
         <v>Левинский Егор Васильевич</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -41895,7 +41917,7 @@
         <v>Леонидов Евгений Юрьевич</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -41967,7 +41989,7 @@
         <v>Лешков Максим Олегович</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -42039,7 +42061,7 @@
         <v>Лобахин Егор Сергеевич</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -42111,7 +42133,7 @@
         <v>Лобачев Валерий Павлович</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -42183,7 +42205,7 @@
         <v>Лопатин Алексей Андреевич</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -42255,7 +42277,7 @@
         <v>Лукьянова Мария Андреевна</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -42327,7 +42349,7 @@
         <v>Лысенко Денис Тимурович</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -42399,7 +42421,7 @@
         <v>Лысенко Мария Сергеевна</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -42471,7 +42493,7 @@
         <v>Люлькина Варвара Сергеевна</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -42543,7 +42565,7 @@
         <v>Майоров Павел Дмитриевич</v>
       </c>
     </row>
-    <row r="195" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -42615,7 +42637,7 @@
         <v>Макаров Олег Денисович</v>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -42687,7 +42709,7 @@
         <v>Макарова Ирина Денисовна</v>
       </c>
     </row>
-    <row r="197" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -42759,7 +42781,7 @@
         <v>Макарова Софья Дмитриевна</v>
       </c>
     </row>
-    <row r="198" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -42831,7 +42853,7 @@
         <v>Максимова Полина Геннадьевна</v>
       </c>
     </row>
-    <row r="199" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -42903,7 +42925,7 @@
         <v>Малахов Николай Иванович</v>
       </c>
     </row>
-    <row r="200" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -42975,7 +42997,7 @@
         <v>Малыгин Иван Витальевич</v>
       </c>
     </row>
-    <row r="201" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -43047,7 +43069,7 @@
         <v>Манцеров Павел Константинович</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -43119,7 +43141,7 @@
         <v>Маркелов Дмитрий Сергеевич</v>
       </c>
     </row>
-    <row r="203" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -43191,7 +43213,7 @@
         <v>Марковнин Артём Юрьевич</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -43263,7 +43285,7 @@
         <v>Мартынова Ирина Павловна</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -43335,7 +43357,7 @@
         <v>Марченко Максим Игоревич</v>
       </c>
     </row>
-    <row r="206" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -43407,7 +43429,7 @@
         <v>Маряшин Евгений Артёмович</v>
       </c>
     </row>
-    <row r="207" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -43479,7 +43501,7 @@
         <v>Матвеев Роман Игоревич</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -43551,7 +43573,7 @@
         <v>Матюхин Артём Игоревич</v>
       </c>
     </row>
-    <row r="209" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -43695,7 +43717,7 @@
         <v>Медов Никита Антонович</v>
       </c>
     </row>
-    <row r="211" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -43767,7 +43789,7 @@
         <v>Межаков Антон Валерьевич</v>
       </c>
     </row>
-    <row r="212" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -43839,7 +43861,7 @@
         <v>Мелентович Леонард Викторович</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -43911,7 +43933,7 @@
         <v>Мельситов Данила Сергеевич</v>
       </c>
     </row>
-    <row r="214" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -43983,7 +44005,7 @@
         <v>Меркулов Илья Владимирович</v>
       </c>
     </row>
-    <row r="215" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -44055,7 +44077,7 @@
         <v>Меркулова Марина Юрьевна</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -44127,7 +44149,7 @@
         <v>Метт Владимир Дмитриевич</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -44199,7 +44221,7 @@
         <v>Миронова Ирина Алексеевна</v>
       </c>
     </row>
-    <row r="218" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -44271,7 +44293,7 @@
         <v>Михайлова Валерия Игоревна</v>
       </c>
     </row>
-    <row r="219" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -44343,7 +44365,7 @@
         <v>Михалевский Тарас Александрович</v>
       </c>
     </row>
-    <row r="220" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -44415,7 +44437,7 @@
         <v>Михеев Данила Владимирович</v>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -44487,7 +44509,7 @@
         <v>Мозжегоров Никита Дмитриевич</v>
       </c>
     </row>
-    <row r="222" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -44559,7 +44581,7 @@
         <v>Моисеев Александр Владимирович</v>
       </c>
     </row>
-    <row r="223" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -44631,7 +44653,7 @@
         <v>Морев Владимир Сергеевич</v>
       </c>
     </row>
-    <row r="224" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -44703,7 +44725,7 @@
         <v>Морозов Владимир Олегович</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -44775,7 +44797,7 @@
         <v>Мосин Вадим Денисович</v>
       </c>
     </row>
-    <row r="226" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -44847,7 +44869,7 @@
         <v>Москалик Фёдор Олегович</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -44919,7 +44941,7 @@
         <v>Мостовой Максим Дмитриевич</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -44991,7 +45013,7 @@
         <v>Мукашев Ринат Русланович</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -45063,7 +45085,7 @@
         <v>Мурашов Сергей Евгеньевич</v>
       </c>
     </row>
-    <row r="230" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -45135,7 +45157,7 @@
         <v>Мурин Игорь Игоревич</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -45207,7 +45229,7 @@
         <v>Мусиенко Ян Владиславович</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -45279,7 +45301,7 @@
         <v>Мустайкин Вадим Леонидович</v>
       </c>
     </row>
-    <row r="233" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -45351,7 +45373,7 @@
         <v>Нагарёв Всеволод Владимирович</v>
       </c>
     </row>
-    <row r="234" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -45423,7 +45445,7 @@
         <v>Найденова Юлия Александровна</v>
       </c>
     </row>
-    <row r="235" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -45495,7 +45517,7 @@
         <v>Наумов Антон Дмитриевич</v>
       </c>
     </row>
-    <row r="236" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -45567,7 +45589,7 @@
         <v>Никаноров Валерий Русланович</v>
       </c>
     </row>
-    <row r="237" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -45639,7 +45661,7 @@
         <v>Никитченков Николай Алексеевич</v>
       </c>
     </row>
-    <row r="238" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -45783,7 +45805,7 @@
         <v>Новикова Марина Анатольевна</v>
       </c>
     </row>
-    <row r="240" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -45855,7 +45877,7 @@
         <v>Новицкий Пётр Алексеевич</v>
       </c>
     </row>
-    <row r="241" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -45927,7 +45949,7 @@
         <v>Новосёлова Наталия Александровна</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -45999,7 +46021,7 @@
         <v>Носов Павел Андреевич</v>
       </c>
     </row>
-    <row r="243" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -46071,7 +46093,7 @@
         <v>Нуреева Ангелина Айратовна</v>
       </c>
     </row>
-    <row r="244" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -46143,7 +46165,7 @@
         <v>Нуриманов Ильдар Равилович</v>
       </c>
     </row>
-    <row r="245" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -46215,7 +46237,7 @@
         <v>Обещенко Никита Александрович</v>
       </c>
     </row>
-    <row r="246" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -46287,7 +46309,7 @@
         <v>Обижаев Александр Александрович</v>
       </c>
     </row>
-    <row r="247" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -46359,7 +46381,7 @@
         <v>Обыденный Виктор Олегович</v>
       </c>
     </row>
-    <row r="248" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -46431,7 +46453,7 @@
         <v>Овдиенко Даниил Владимирович</v>
       </c>
     </row>
-    <row r="249" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -46503,7 +46525,7 @@
         <v>Огонькова Мария Сергеевна</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -46575,7 +46597,7 @@
         <v>Ольмезов Тимур Олегович</v>
       </c>
     </row>
-    <row r="251" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -46647,7 +46669,7 @@
         <v>Ольховой Ярослав Сергеевич</v>
       </c>
     </row>
-    <row r="252" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -46719,7 +46741,7 @@
         <v>Орлова Анна Валерьевна</v>
       </c>
     </row>
-    <row r="253" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -46791,7 +46813,7 @@
         <v>Павшик Кирилл Дмитриевич</v>
       </c>
     </row>
-    <row r="254" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -46863,7 +46885,7 @@
         <v>Пак Виктор Витальевич</v>
       </c>
     </row>
-    <row r="255" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -46935,7 +46957,7 @@
         <v>Пак Константин Дмитриевич</v>
       </c>
     </row>
-    <row r="256" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -47007,7 +47029,7 @@
         <v>Палецкий Владимир Николаевич</v>
       </c>
     </row>
-    <row r="257" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -47079,7 +47101,7 @@
         <v>Паличева Анастасия Ивановна</v>
       </c>
     </row>
-    <row r="258" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -47151,7 +47173,7 @@
         <v>Панин Андрей Александрович</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -47223,7 +47245,7 @@
         <v>Панкратов Никита Львович</v>
       </c>
     </row>
-    <row r="260" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -47295,7 +47317,7 @@
         <v>Парфенов Алексей Владимирович</v>
       </c>
     </row>
-    <row r="261" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -47367,7 +47389,7 @@
         <v>Пашин Роман Антонович</v>
       </c>
     </row>
-    <row r="262" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -47439,7 +47461,7 @@
         <v>Пелин Алексей Андреевич</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -47511,7 +47533,7 @@
         <v>Пестряков Андрей Дмитриевич</v>
       </c>
     </row>
-    <row r="264" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -47583,7 +47605,7 @@
         <v>Петров Максим Михайлович</v>
       </c>
     </row>
-    <row r="265" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -47655,7 +47677,7 @@
         <v>Пешкин Дмитрий Алексеевич</v>
       </c>
     </row>
-    <row r="266" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -47727,7 +47749,7 @@
         <v>Пивоварова Александра Павловна</v>
       </c>
     </row>
-    <row r="267" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -47799,7 +47821,7 @@
         <v>Пиджаков Константин Евгеньевич</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -47871,7 +47893,7 @@
         <v>Пирогов Евгений Никитич</v>
       </c>
     </row>
-    <row r="269" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -47943,7 +47965,7 @@
         <v>Платонов Алексей Витальевич</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -48015,7 +48037,7 @@
         <v>Плешаков Иван Алексеевич</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -48087,7 +48109,7 @@
         <v>Подскребалин Данила Николаевич</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -48193,7 +48215,7 @@
       <c r="K273" t="s">
         <v>31</v>
       </c>
-      <c r="L273" t="s">
+      <c r="L273" s="12" t="s">
         <v>32</v>
       </c>
       <c r="M273" t="s">
@@ -48231,7 +48253,7 @@
         <v>Политов Дмитрий Павлович</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -48303,7 +48325,7 @@
         <v>Попов Михаил Георгиевич</v>
       </c>
     </row>
-    <row r="275" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -48375,7 +48397,7 @@
         <v>Попова Ирина Ивановна</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -48447,7 +48469,7 @@
         <v>Порошина Варвара Александровна</v>
       </c>
     </row>
-    <row r="277" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -48519,7 +48541,7 @@
         <v>Портнов Арсений Олегович</v>
       </c>
     </row>
-    <row r="278" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -48591,7 +48613,7 @@
         <v>Портнов Макар Михайлович</v>
       </c>
     </row>
-    <row r="279" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -48663,7 +48685,7 @@
         <v>Пристансков Михаил Сергеевич</v>
       </c>
     </row>
-    <row r="280" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -48735,7 +48757,7 @@
         <v>Прокопчук Георгий Владимирович</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -48807,7 +48829,7 @@
         <v>Прудкая Софья Филипповна</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -48879,7 +48901,7 @@
         <v>Пустовалов Илья Романович</v>
       </c>
     </row>
-    <row r="283" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -48951,7 +48973,7 @@
         <v>Пухов Александр Александрович</v>
       </c>
     </row>
-    <row r="284" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -49023,7 +49045,7 @@
         <v>Пушистов Даниил Николаевич</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -49095,7 +49117,7 @@
         <v>Пятин Никита Олегович</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -49167,7 +49189,7 @@
         <v>Раднаев Баир Аюшиевич</v>
       </c>
     </row>
-    <row r="287" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -49239,7 +49261,7 @@
         <v>Радченко Ирина Сергеевна</v>
       </c>
     </row>
-    <row r="288" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -49311,7 +49333,7 @@
         <v>Ракутин Димитрий Антонович</v>
       </c>
     </row>
-    <row r="289" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -49383,7 +49405,7 @@
         <v>Рекун Алексей Павлович</v>
       </c>
     </row>
-    <row r="290" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -49455,7 +49477,7 @@
         <v>Рекунов Иван Сергеевич</v>
       </c>
     </row>
-    <row r="291" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -49527,7 +49549,7 @@
         <v>Решетникова Ангелина Леонидовна</v>
       </c>
     </row>
-    <row r="292" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -49599,7 +49621,7 @@
         <v>Роденко Кирилл Андреевич</v>
       </c>
     </row>
-    <row r="293" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -49671,7 +49693,7 @@
         <v>Романов Валерий Олегович</v>
       </c>
     </row>
-    <row r="294" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -49743,7 +49765,7 @@
         <v>Романцов Роман Валерьевич</v>
       </c>
     </row>
-    <row r="295" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -49815,7 +49837,7 @@
         <v>Ромашкин Илья Александрович</v>
       </c>
     </row>
-    <row r="296" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -49887,7 +49909,7 @@
         <v>Рублёв Артём Дмитриевич</v>
       </c>
     </row>
-    <row r="297" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -49959,7 +49981,7 @@
         <v>Руднев Сергей Владимирович</v>
       </c>
     </row>
-    <row r="298" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -50031,7 +50053,7 @@
         <v>Рыбаков Алексей Вадимович</v>
       </c>
     </row>
-    <row r="299" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -50103,7 +50125,7 @@
         <v>Рымарчук Вероника Олеговна</v>
       </c>
     </row>
-    <row r="300" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -50175,7 +50197,7 @@
         <v>Сабитов Дмитрий Маратович</v>
       </c>
     </row>
-    <row r="301" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -50247,7 +50269,7 @@
         <v>Савельев Алексей Дмитриевич</v>
       </c>
     </row>
-    <row r="302" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -50319,7 +50341,7 @@
         <v>Савенко Георгий Олегович</v>
       </c>
     </row>
-    <row r="303" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -50391,7 +50413,7 @@
         <v>Савчук Данила Андреевич</v>
       </c>
     </row>
-    <row r="304" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -50463,7 +50485,7 @@
         <v>Садеков Абдулла Рамилевич</v>
       </c>
     </row>
-    <row r="305" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -50535,7 +50557,7 @@
         <v>Садохин Антон Владимирович</v>
       </c>
     </row>
-    <row r="306" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -50607,7 +50629,7 @@
         <v>Салимов Карим Дамирович</v>
       </c>
     </row>
-    <row r="307" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -50679,7 +50701,7 @@
         <v>Сауткин Данила Романович</v>
       </c>
     </row>
-    <row r="308" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -50751,7 +50773,7 @@
         <v>Саханов Степан Никитич</v>
       </c>
     </row>
-    <row r="309" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -50823,7 +50845,7 @@
         <v>Семенова Анна Сергеевна</v>
       </c>
     </row>
-    <row r="310" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -50895,7 +50917,7 @@
         <v>Сергеева Елена Сергеевна</v>
       </c>
     </row>
-    <row r="311" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -50967,7 +50989,7 @@
         <v>Сергиенко Дмитрий Владимирович</v>
       </c>
     </row>
-    <row r="312" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -51039,7 +51061,7 @@
         <v>Сердитенко Екатерина Михайловна</v>
       </c>
     </row>
-    <row r="313" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -51111,7 +51133,7 @@
         <v>Сердюков Никита Николаевич</v>
       </c>
     </row>
-    <row r="314" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -51183,7 +51205,7 @@
         <v>Серов Егор Алексеевич</v>
       </c>
     </row>
-    <row r="315" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -51255,7 +51277,7 @@
         <v>Симонов Никита Сергеевич</v>
       </c>
     </row>
-    <row r="316" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -51327,7 +51349,7 @@
         <v>Синицкий Матвей Андреевич</v>
       </c>
     </row>
-    <row r="317" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -51399,7 +51421,7 @@
         <v>Синявский Александр Андреевич</v>
       </c>
     </row>
-    <row r="318" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -51471,7 +51493,7 @@
         <v>Сипягин Александр Николаевич</v>
       </c>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -51543,7 +51565,7 @@
         <v>Сметанин Георгий Максимович</v>
       </c>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -51615,7 +51637,7 @@
         <v>Смирнов Андрей Евгеньевич</v>
       </c>
     </row>
-    <row r="321" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -51687,7 +51709,7 @@
         <v>Смирнов Калислав Андреевич</v>
       </c>
     </row>
-    <row r="322" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -51759,7 +51781,7 @@
         <v>Смирнов Михаил Михайлович</v>
       </c>
     </row>
-    <row r="323" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -51831,7 +51853,7 @@
         <v>Смирнов Филипп Александрович</v>
       </c>
     </row>
-    <row r="324" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -51903,7 +51925,7 @@
         <v>Смирнова Екатерина Сергеевна</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -51975,7 +51997,7 @@
         <v>Смоляный Андрей Геннадьевич</v>
       </c>
     </row>
-    <row r="326" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -52047,7 +52069,7 @@
         <v>Снедков Алексей Викторович</v>
       </c>
     </row>
-    <row r="327" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -52119,7 +52141,7 @@
         <v>Соболев Артем Александрович</v>
       </c>
     </row>
-    <row r="328" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -52191,7 +52213,7 @@
         <v>Солдатова Анастасия Александровна</v>
       </c>
     </row>
-    <row r="329" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -52263,7 +52285,7 @@
         <v>Солнышкин Егор Андреевич</v>
       </c>
     </row>
-    <row r="330" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -52335,7 +52357,7 @@
         <v>Сошенко Дмитрий Романович</v>
       </c>
     </row>
-    <row r="331" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -52407,7 +52429,7 @@
         <v>Степанов Роман Дмитриевич</v>
       </c>
     </row>
-    <row r="332" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -52479,7 +52501,7 @@
         <v>Стометов Антон Сергеевич</v>
       </c>
     </row>
-    <row r="333" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -52551,7 +52573,7 @@
         <v>Стёпин Дмитрий Сергеевич</v>
       </c>
     </row>
-    <row r="334" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -52623,7 +52645,7 @@
         <v>Сулейманов Ринат Радикович</v>
       </c>
     </row>
-    <row r="335" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -52695,7 +52717,7 @@
         <v>Сухоставский Алексей Вячеславович</v>
       </c>
     </row>
-    <row r="336" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -52767,7 +52789,7 @@
         <v>Сырчин Андрей Максимович</v>
       </c>
     </row>
-    <row r="337" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -52839,7 +52861,7 @@
         <v>Тагиров Егор Павлович</v>
       </c>
     </row>
-    <row r="338" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -52911,7 +52933,7 @@
         <v>Тананян Давид Вагеевич</v>
       </c>
     </row>
-    <row r="339" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -52983,7 +53005,7 @@
         <v>Тархан-Моурави Александра Георгиевна</v>
       </c>
     </row>
-    <row r="340" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -53055,7 +53077,7 @@
         <v>Тепеев Дмитрий Николаевич</v>
       </c>
     </row>
-    <row r="341" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -53127,7 +53149,7 @@
         <v>Тепляков Александр Александрович</v>
       </c>
     </row>
-    <row r="342" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -53199,7 +53221,7 @@
         <v>Тепляков Никита Сергеевич</v>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -53271,7 +53293,7 @@
         <v>Терехова Серафима Максимовна</v>
       </c>
     </row>
-    <row r="344" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -53343,7 +53365,7 @@
         <v>Тимошенко Александр Александрович</v>
       </c>
     </row>
-    <row r="345" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -53415,7 +53437,7 @@
         <v>Тишкин Кирилл Евгеньевич</v>
       </c>
     </row>
-    <row r="346" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -53487,7 +53509,7 @@
         <v>Тишкунов Максим Алексеевич</v>
       </c>
     </row>
-    <row r="347" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -53559,7 +53581,7 @@
         <v>Токмакова Мария Константиновна</v>
       </c>
     </row>
-    <row r="348" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -53631,7 +53653,7 @@
         <v>Толкалина Анастасия Олеговна</v>
       </c>
     </row>
-    <row r="349" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -53703,7 +53725,7 @@
         <v>Толмачев Илья Юрьевич</v>
       </c>
     </row>
-    <row r="350" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -53775,7 +53797,7 @@
         <v>Толстопятов Сергей Сергеевич</v>
       </c>
     </row>
-    <row r="351" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -53847,7 +53869,7 @@
         <v>Томаев Иван Ибрагимович</v>
       </c>
     </row>
-    <row r="352" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -53919,7 +53941,7 @@
         <v>Третьяк Кирилл Владимирович</v>
       </c>
     </row>
-    <row r="353" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -53991,7 +54013,7 @@
         <v>Узбяков Рустам Русланович</v>
       </c>
     </row>
-    <row r="354" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -54063,7 +54085,7 @@
         <v>Ульянов Максим Ильич</v>
       </c>
     </row>
-    <row r="355" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -54135,7 +54157,7 @@
         <v>Фадеев Александр Геннадьевич</v>
       </c>
     </row>
-    <row r="356" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -54207,7 +54229,7 @@
         <v>Федоренко Данила Иванович</v>
       </c>
     </row>
-    <row r="357" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -54279,7 +54301,7 @@
         <v>Федоренко Екатерина Константиновна</v>
       </c>
     </row>
-    <row r="358" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -54351,7 +54373,7 @@
         <v>Федорова Александра Алексеевна</v>
       </c>
     </row>
-    <row r="359" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -54423,7 +54445,7 @@
         <v>Филипов Кирилл Викторович</v>
       </c>
     </row>
-    <row r="360" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -54495,7 +54517,7 @@
         <v>Филиппова Полина Ивановна</v>
       </c>
     </row>
-    <row r="361" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -54567,7 +54589,7 @@
         <v>Фролов Михаил Сергеевич</v>
       </c>
     </row>
-    <row r="362" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -54639,7 +54661,7 @@
         <v>Халиуллин Кирилл Рафаэлевич</v>
       </c>
     </row>
-    <row r="363" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -54711,7 +54733,7 @@
         <v>Хаменушко Денис Иванович</v>
       </c>
     </row>
-    <row r="364" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -54783,7 +54805,7 @@
         <v>Хамнуев Кирилл Вадимович</v>
       </c>
     </row>
-    <row r="365" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -54855,7 +54877,7 @@
         <v>Харьков Станислав Вадимович</v>
       </c>
     </row>
-    <row r="366" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -54927,7 +54949,7 @@
         <v>Хацев Александр Дмитриевич</v>
       </c>
     </row>
-    <row r="367" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -54999,7 +55021,7 @@
         <v>Ходырев Григорий Андреевич</v>
       </c>
     </row>
-    <row r="368" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -55071,7 +55093,7 @@
         <v>Холматов Темур Муродбекович</v>
       </c>
     </row>
-    <row r="369" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -55143,7 +55165,7 @@
         <v>Холодарь Александр Александрович</v>
       </c>
     </row>
-    <row r="370" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>369</v>
       </c>
@@ -55215,7 +55237,7 @@
         <v>Хуснияров Ильгиз Зимфирович</v>
       </c>
     </row>
-    <row r="371" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>370</v>
       </c>
@@ -55287,7 +55309,7 @@
         <v>Царёв Вадим Романович</v>
       </c>
     </row>
-    <row r="372" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>371</v>
       </c>
@@ -55359,7 +55381,7 @@
         <v>Цуканов Никита Алексеевич</v>
       </c>
     </row>
-    <row r="373" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>372</v>
       </c>
@@ -55431,7 +55453,7 @@
         <v>Цыганов Георгий Ильич</v>
       </c>
     </row>
-    <row r="374" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>373</v>
       </c>
@@ -55503,7 +55525,7 @@
         <v>Чабанасан Денис Диляверович</v>
       </c>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>374</v>
       </c>
@@ -55575,7 +55597,7 @@
         <v>Чабина Ангелина Владимировна</v>
       </c>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375</v>
       </c>
@@ -55647,7 +55669,7 @@
         <v>Частин Александр Дмитриевич</v>
       </c>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>376</v>
       </c>
@@ -55719,7 +55741,7 @@
         <v>Чащин Анатолий Дмитриевич</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>377</v>
       </c>
@@ -55791,7 +55813,7 @@
         <v>Чеботарев Андрей Владимирович</v>
       </c>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>378</v>
       </c>
@@ -55863,7 +55885,7 @@
         <v>Черняев Иван Константинович</v>
       </c>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>379</v>
       </c>
@@ -55935,7 +55957,7 @@
         <v>Черятников Сергей Сергеевич</v>
       </c>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>380</v>
       </c>
@@ -56007,7 +56029,7 @@
         <v>Чистяков Владимир Сергеевич</v>
       </c>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>381</v>
       </c>
@@ -56079,7 +56101,7 @@
         <v>Чистяков Иван Павлович</v>
       </c>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>382</v>
       </c>
@@ -56151,7 +56173,7 @@
         <v>Чиханов Михаил Федорович</v>
       </c>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>383</v>
       </c>
@@ -56223,7 +56245,7 @@
         <v>Чуенков Дмитрий Андреевич</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>384</v>
       </c>
@@ -56295,7 +56317,7 @@
         <v>Шакирова Жамиля Хусанжановна</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>385</v>
       </c>
@@ -56367,7 +56389,7 @@
         <v>Шакуров Никита Станиславович</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>386</v>
       </c>
@@ -56439,7 +56461,7 @@
         <v>Шапкина Алина Александровна</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>387</v>
       </c>
@@ -56511,7 +56533,7 @@
         <v>Шаповалов Алексей Юрьевич</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>388</v>
       </c>
@@ -56583,7 +56605,7 @@
         <v>Шафеева Зарина Шамилевна</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>389</v>
       </c>
@@ -56655,7 +56677,7 @@
         <v>Шахов Никита Максимович</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>390</v>
       </c>
@@ -56727,7 +56749,7 @@
         <v>Швачко Анна Леонидовна</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>391</v>
       </c>
@@ -56799,7 +56821,7 @@
         <v>Шведов Владислав Иванович</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>392</v>
       </c>
@@ -56871,7 +56893,7 @@
         <v>Шевцов Лев Михайлович</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>393</v>
       </c>
@@ -56943,7 +56965,7 @@
         <v>Шерман Елизавета Михайловна</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>394</v>
       </c>
@@ -57015,7 +57037,7 @@
         <v>Шиканов Антон Игоревич</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>395</v>
       </c>
@@ -57087,7 +57109,7 @@
         <v>Шилов Алексей Иванович</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>396</v>
       </c>
@@ -57159,7 +57181,7 @@
         <v>Шиповалов Матвей Витальевич</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>397</v>
       </c>
@@ -57231,7 +57253,7 @@
         <v>Ширкунова Евгения Александровна</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>398</v>
       </c>
@@ -57303,7 +57325,7 @@
         <v>Шитов Даниил Константинович</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>399</v>
       </c>
@@ -57375,7 +57397,7 @@
         <v>Шкодина Елена Сергеевна</v>
       </c>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>400</v>
       </c>
@@ -57447,7 +57469,7 @@
         <v>Шмаков Иван Денисович</v>
       </c>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>401</v>
       </c>
@@ -57519,7 +57541,7 @@
         <v>Шумский Владислав Антонович</v>
       </c>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>402</v>
       </c>
@@ -57591,7 +57613,7 @@
         <v>Щербаков Никита Сергеевич</v>
       </c>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>403</v>
       </c>
@@ -57663,7 +57685,7 @@
         <v>Юдаков Владислав Игоревич</v>
       </c>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>404</v>
       </c>
@@ -57735,7 +57757,7 @@
         <v>Юзлибаева Лия Равильевна</v>
       </c>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>405</v>
       </c>
@@ -57807,7 +57829,7 @@
         <v>Якин Андрей Вадимович</v>
       </c>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>406</v>
       </c>
@@ -57879,7 +57901,7 @@
         <v>Якупов Альберт Эдуардович</v>
       </c>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>407</v>
       </c>
@@ -57951,7 +57973,7 @@
         <v>Якупов Семен Андреевич</v>
       </c>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>408</v>
       </c>
@@ -58023,7 +58045,7 @@
         <v>Якушев Олег Владимирович</v>
       </c>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>409</v>
       </c>

--- a/ListOfStudents.xlsx
+++ b/ListOfStudents.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17172" windowHeight="5064" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17172" windowHeight="5064" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -18113,7 +18113,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Данные" updatedVersion="6" showMemberPropertyTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:M257" firstHeaderRow="2" firstDataRow="2" firstDataCol="7"/>
   <pivotFields count="23">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
@@ -21306,14 +21306,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:W410" totalsRowShown="0">
   <autoFilter ref="A1:W410">
-    <filterColumn colId="11">
+    <filterColumn colId="6">
       <filters>
-        <filter val="В академическом отпуске"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="21">
-      <filters>
-        <filter val="Да - ЦДП"/>
+        <filter val="АК3-11М"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -28572,7 +28567,7 @@
   <dimension ref="A1:W410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L411" sqref="L411"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29533,7 +29528,7 @@
         <v>Артемова Мария Васильевна</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -33925,7 +33920,7 @@
         <v>Громов Никита Андреевич</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -34501,7 +34496,7 @@
         <v>Дриманович Максим Сергеевич</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -43645,7 +43640,7 @@
         <v>Махмудов Ислам Рамазанович</v>
       </c>
     </row>
-    <row r="210" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -45733,7 +45728,7 @@
         <v>Никифоров Денис Владимирович</v>
       </c>
     </row>
-    <row r="239" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -48181,7 +48176,7 @@
         <v>Покорский Никита Сергеевич</v>
       </c>
     </row>
-    <row r="273" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
